--- a/translations/parent_text_crisis_palestine/excel files/modules and activities.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/modules and activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Arabic</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,6 +457,11 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,6 +470,11 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +483,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -476,6 +496,11 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -484,6 +509,11 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -492,6 +522,11 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -500,6 +535,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -508,6 +548,11 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,6 +561,11 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -524,6 +574,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -532,6 +587,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -540,6 +600,11 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -548,6 +613,11 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -556,6 +626,11 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -564,6 +639,11 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -572,6 +652,11 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -580,6 +665,11 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -588,6 +678,11 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +691,11 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -604,6 +704,11 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -612,6 +717,11 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -620,6 +730,11 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -628,6 +743,11 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -636,6 +756,11 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -644,6 +769,11 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -652,6 +782,11 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -660,6 +795,11 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -668,6 +808,11 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -676,6 +821,11 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -684,6 +834,11 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -692,6 +847,11 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -700,6 +860,11 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -708,6 +873,11 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -716,6 +886,11 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -724,6 +899,11 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -732,6 +912,11 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -740,6 +925,11 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -748,6 +938,11 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -756,6 +951,11 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -764,6 +964,11 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -772,6 +977,11 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -780,6 +990,11 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -788,6 +1003,11 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -796,6 +1016,11 @@
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -804,6 +1029,11 @@
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -812,6 +1042,11 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -820,6 +1055,11 @@
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -828,6 +1068,11 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -836,6 +1081,11 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -844,6 +1094,11 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -852,6 +1107,11 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -860,6 +1120,11 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -868,6 +1133,11 @@
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -876,6 +1146,11 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -884,6 +1159,11 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -892,6 +1172,11 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -900,6 +1185,11 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -908,6 +1198,11 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -916,6 +1211,11 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -924,6 +1224,11 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -932,6 +1237,11 @@
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -940,6 +1250,11 @@
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -948,6 +1263,11 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -956,6 +1276,11 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -964,6 +1289,11 @@
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -972,6 +1302,11 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -980,6 +1315,11 @@
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -988,6 +1328,11 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -996,6 +1341,11 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1004,6 +1354,11 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1012,6 +1367,11 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1020,6 +1380,11 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1028,6 +1393,11 @@
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1036,6 +1406,11 @@
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1044,6 +1419,11 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1052,6 +1432,11 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1060,6 +1445,11 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1068,6 +1458,11 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1076,6 +1471,11 @@
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1084,6 +1484,11 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1092,6 +1497,11 @@
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1100,6 +1510,11 @@
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1108,6 +1523,11 @@
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1116,6 +1536,11 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1124,6 +1549,11 @@
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1132,6 +1562,11 @@
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1140,6 +1575,11 @@
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1148,6 +1588,11 @@
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1156,6 +1601,11 @@
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1164,6 +1614,11 @@
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1172,6 +1627,11 @@
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1180,6 +1640,11 @@
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1188,6 +1653,11 @@
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1196,6 +1666,11 @@
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1204,6 +1679,11 @@
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1212,6 +1692,11 @@
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1220,6 +1705,11 @@
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1228,6 +1718,11 @@
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1236,6 +1731,11 @@
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1244,6 +1744,11 @@
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1252,6 +1757,11 @@
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1260,6 +1770,11 @@
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1268,6 +1783,11 @@
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1276,6 +1796,11 @@
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1284,6 +1809,11 @@
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1292,6 +1822,11 @@
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1300,6 +1835,11 @@
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1308,6 +1848,11 @@
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1316,6 +1861,11 @@
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1324,6 +1874,11 @@
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1332,6 +1887,11 @@
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1340,6 +1900,11 @@
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1348,6 +1913,11 @@
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1356,6 +1926,11 @@
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1364,6 +1939,11 @@
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1372,6 +1952,11 @@
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1380,6 +1965,11 @@
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1388,6 +1978,11 @@
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1396,6 +1991,11 @@
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1404,6 +2004,11 @@
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1412,6 +2017,11 @@
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1420,6 +2030,11 @@
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1428,6 +2043,11 @@
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1436,6 +2056,11 @@
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1444,6 +2069,11 @@
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1452,6 +2082,11 @@
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1460,6 +2095,11 @@
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1468,6 +2108,11 @@
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1476,6 +2121,11 @@
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1484,6 +2134,11 @@
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1492,6 +2147,11 @@
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1500,6 +2160,11 @@
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1508,6 +2173,11 @@
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1516,6 +2186,11 @@
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1524,6 +2199,11 @@
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1532,6 +2212,11 @@
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1540,6 +2225,11 @@
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1548,6 +2238,11 @@
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1556,6 +2251,11 @@
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1564,6 +2264,11 @@
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1572,6 +2277,11 @@
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1580,6 +2290,11 @@
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1588,6 +2303,11 @@
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1596,6 +2316,11 @@
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1604,6 +2329,11 @@
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1612,6 +2342,11 @@
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1620,6 +2355,11 @@
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1628,6 +2368,11 @@
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -1636,6 +2381,11 @@
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1644,6 +2394,11 @@
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1652,6 +2407,11 @@
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -1660,6 +2420,11 @@
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1668,6 +2433,11 @@
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -1676,6 +2446,11 @@
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1684,6 +2459,11 @@
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -1692,6 +2472,11 @@
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -1700,6 +2485,11 @@
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -1708,6 +2498,11 @@
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -1716,6 +2511,11 @@
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -1724,6 +2524,11 @@
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1732,6 +2537,11 @@
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -1740,6 +2550,11 @@
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -1748,6 +2563,11 @@
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -1756,6 +2576,11 @@
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -1764,6 +2589,11 @@
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -1772,6 +2602,11 @@
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -1780,6 +2615,11 @@
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -1788,6 +2628,11 @@
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -1796,6 +2641,11 @@
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -1804,6 +2654,11 @@
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -1812,6 +2667,11 @@
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -1820,6 +2680,11 @@
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -1828,6 +2693,11 @@
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -1836,6 +2706,11 @@
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -1844,6 +2719,11 @@
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -1852,6 +2732,11 @@
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -1860,6 +2745,11 @@
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1868,6 +2758,11 @@
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -1876,6 +2771,11 @@
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -1884,6 +2784,11 @@
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -1892,6 +2797,11 @@
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -1900,6 +2810,11 @@
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -1908,6 +2823,11 @@
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1916,6 +2836,11 @@
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -1924,6 +2849,11 @@
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1932,6 +2862,11 @@
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1940,6 +2875,11 @@
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -1948,6 +2888,11 @@
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1956,6 +2901,11 @@
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1964,6 +2914,11 @@
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1972,6 +2927,11 @@
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -1980,6 +2940,11 @@
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1988,6 +2953,11 @@
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -1996,6 +2966,11 @@
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2004,6 +2979,11 @@
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2012,6 +2992,11 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2020,6 +3005,11 @@
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2028,6 +3018,11 @@
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2036,6 +3031,11 @@
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2044,6 +3044,11 @@
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2052,6 +3057,11 @@
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2060,6 +3070,11 @@
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2068,6 +3083,11 @@
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2076,6 +3096,11 @@
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2084,6 +3109,11 @@
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2092,6 +3122,11 @@
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2100,6 +3135,11 @@
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2108,6 +3148,11 @@
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2116,6 +3161,11 @@
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2124,6 +3174,11 @@
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2132,6 +3187,11 @@
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2140,6 +3200,11 @@
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -2148,6 +3213,11 @@
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -2156,6 +3226,11 @@
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -2164,6 +3239,11 @@
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -2172,6 +3252,11 @@
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -2180,6 +3265,11 @@
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -2188,6 +3278,11 @@
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -2196,6 +3291,11 @@
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -2204,6 +3304,11 @@
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -2212,6 +3317,11 @@
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -2220,6 +3330,11 @@
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -2228,6 +3343,11 @@
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -2236,6 +3356,11 @@
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -2244,6 +3369,11 @@
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -2252,6 +3382,11 @@
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -2260,6 +3395,11 @@
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -2268,6 +3408,11 @@
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -2276,6 +3421,11 @@
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -2284,6 +3434,11 @@
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -2292,6 +3447,11 @@
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -2300,6 +3460,11 @@
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -2308,6 +3473,11 @@
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -2316,6 +3486,11 @@
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -2324,6 +3499,11 @@
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -2332,6 +3512,11 @@
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -2340,6 +3525,11 @@
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -2348,6 +3538,11 @@
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -2356,6 +3551,11 @@
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -2364,6 +3564,11 @@
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -2372,6 +3577,11 @@
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -2380,6 +3590,11 @@
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -2388,6 +3603,11 @@
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -2396,6 +3616,11 @@
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -2404,6 +3629,11 @@
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -2412,6 +3642,11 @@
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -2420,6 +3655,11 @@
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -2428,6 +3668,11 @@
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -2436,6 +3681,11 @@
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -2444,6 +3694,11 @@
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -2452,6 +3707,11 @@
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -2460,6 +3720,11 @@
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -2468,6 +3733,11 @@
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -2476,6 +3746,11 @@
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -2484,6 +3759,11 @@
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -2492,6 +3772,11 @@
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -2500,6 +3785,11 @@
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -2508,6 +3798,11 @@
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -2516,6 +3811,11 @@
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -2524,6 +3824,11 @@
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -2532,6 +3837,11 @@
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -2540,6 +3850,11 @@
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -2548,6 +3863,11 @@
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -2556,6 +3876,11 @@
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -2564,6 +3889,11 @@
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -2572,6 +3902,11 @@
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -2580,6 +3915,11 @@
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -2588,6 +3928,11 @@
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -2596,6 +3941,11 @@
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -2604,6 +3954,11 @@
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -2612,6 +3967,11 @@
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -2620,6 +3980,11 @@
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -2628,6 +3993,11 @@
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -2636,6 +4006,11 @@
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -2644,6 +4019,11 @@
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -2652,6 +4032,11 @@
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -2660,6 +4045,11 @@
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -2668,6 +4058,11 @@
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -2676,6 +4071,11 @@
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -2684,6 +4084,11 @@
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -2692,6 +4097,11 @@
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -2700,6 +4110,11 @@
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -2708,6 +4123,11 @@
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -2716,6 +4136,11 @@
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -2724,6 +4149,11 @@
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -2732,6 +4162,11 @@
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -2740,6 +4175,11 @@
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -2748,6 +4188,11 @@
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -2756,6 +4201,11 @@
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -2764,6 +4214,11 @@
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -2772,6 +4227,11 @@
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -2780,6 +4240,11 @@
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -2788,6 +4253,11 @@
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -2796,6 +4266,11 @@
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -2804,6 +4279,11 @@
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -2812,6 +4292,11 @@
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
